--- a/medicine/Soins infirmiers et profession infirmière/Hôpital_Albert-Chenevier/Hôpital_Albert-Chenevier.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Hôpital_Albert-Chenevier/Hôpital_Albert-Chenevier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Albert-Chenevier</t>
+          <t>Hôpital_Albert-Chenevier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’hôpital Albert-Chenevier est un hôpital de l'Assistance publique de Paris situé à Créteil dans le Val-de-Marne.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Albert-Chenevier</t>
+          <t>Hôpital_Albert-Chenevier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,10 +527,12 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est organisé avec l'hôpital Henri-Mondor en 10 pôles d'activités.
-Cet hôpital propose des soins en psychiatrie[1] (de secteur et hospitalo-universitaire), neurologie, rééducation digestive, réadaptation cardiaque, médecine interne, gériatrie, soins palliatifs et chirurgie dentaire.
+Cet hôpital propose des soins en psychiatrie (de secteur et hospitalo-universitaire), neurologie, rééducation digestive, réadaptation cardiaque, médecine interne, gériatrie, soins palliatifs et chirurgie dentaire.
 </t>
         </is>
       </c>
